--- a/lowe/edd/data/CHIC$HWS.xlsx
+++ b/lowe/edd/data/CHIC$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,14 +1352,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH49"/>
+  <dimension ref="A1:JI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1369,12 +1369,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1402,12 +1402,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2222,11 +2222,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3027,10 +3030,13 @@
         <v>93200</v>
       </c>
       <c r="JH9" s="11">
-        <v>93100</v>
+        <v>93200</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>93800</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3831,10 +3837,13 @@
         <v>86600</v>
       </c>
       <c r="JH10" s="11">
-        <v>86800</v>
+        <v>86900</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>88400</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4637,8 +4646,11 @@
       <c r="JH11" s="11">
         <v>6300</v>
       </c>
+      <c r="JI11" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5441,8 +5453,11 @@
       <c r="JH12" s="12">
         <v>6.8000000000000005E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6243,10 +6258,13 @@
         <v>77300</v>
       </c>
       <c r="JH13" s="11">
-        <v>77900</v>
+        <v>78300</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>78800</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7049,8 +7067,11 @@
       <c r="JH14" s="11">
         <v>3200</v>
       </c>
+      <c r="JI14" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7851,10 +7872,13 @@
         <v>74300</v>
       </c>
       <c r="JH15" s="11">
-        <v>74700</v>
+        <v>75100</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>75500</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8655,10 +8679,13 @@
         <v>60500</v>
       </c>
       <c r="JH16" s="11">
-        <v>60500</v>
+        <v>60900</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>60700</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9459,10 +9486,13 @@
         <v>8900</v>
       </c>
       <c r="JH17" s="11">
+        <v>9100</v>
+      </c>
+      <c r="JI17" s="11">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10263,10 +10293,13 @@
         <v>4400</v>
       </c>
       <c r="JH18" s="11">
-        <v>4200</v>
+        <v>4400</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11069,8 +11102,11 @@
       <c r="JH19" s="11">
         <v>4700</v>
       </c>
+      <c r="JI19" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -11871,10 +11907,13 @@
         <v>65400</v>
       </c>
       <c r="JH20" s="11">
-        <v>65800</v>
+        <v>66000</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>66600</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -12675,10 +12714,13 @@
         <v>51600</v>
       </c>
       <c r="JH21" s="11">
-        <v>51600</v>
+        <v>51800</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>51800</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -13479,10 +13521,13 @@
         <v>13600</v>
       </c>
       <c r="JH22" s="11">
-        <v>13500</v>
+        <v>13600</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>13700</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -14285,8 +14330,11 @@
       <c r="JH23" s="11">
         <v>2200</v>
       </c>
+      <c r="JI23" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -15087,10 +15135,13 @@
         <v>9700</v>
       </c>
       <c r="JH24" s="11">
-        <v>9600</v>
+        <v>9700</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>9800</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>28</v>
       </c>
@@ -15893,8 +15944,11 @@
       <c r="JH25" s="11">
         <v>1700</v>
       </c>
+      <c r="JI25" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>29</v>
       </c>
@@ -16697,8 +16751,11 @@
       <c r="JH26" s="11">
         <v>800</v>
       </c>
+      <c r="JI26" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>30</v>
       </c>
@@ -17499,10 +17556,13 @@
         <v>2800</v>
       </c>
       <c r="JH27" s="11">
-        <v>2800</v>
+        <v>2900</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>2900</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>31</v>
       </c>
@@ -18305,8 +18365,11 @@
       <c r="JH28" s="11">
         <v>1700</v>
       </c>
+      <c r="JI28" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>34</v>
       </c>
@@ -19107,10 +19170,13 @@
         <v>5300</v>
       </c>
       <c r="JH29" s="11">
+        <v>5400</v>
+      </c>
+      <c r="JI29" s="11">
         <v>5300</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>35</v>
       </c>
@@ -19913,8 +19979,11 @@
       <c r="JH30" s="11">
         <v>18500</v>
       </c>
+      <c r="JI30" s="11">
+        <v>18200</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>39</v>
       </c>
@@ -20717,8 +20786,11 @@
       <c r="JH31" s="11">
         <v>7600</v>
       </c>
+      <c r="JI31" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>42</v>
       </c>
@@ -21519,10 +21591,13 @@
         <v>3000</v>
       </c>
       <c r="JH32" s="11">
-        <v>3100</v>
+        <v>3000</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>43</v>
       </c>
@@ -22325,8 +22400,11 @@
       <c r="JH33" s="11">
         <v>14200</v>
       </c>
+      <c r="JI33" s="11">
+        <v>14800</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -23129,8 +23207,11 @@
       <c r="JH34" s="11">
         <v>600</v>
       </c>
+      <c r="JI34" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>45</v>
       </c>
@@ -23933,8 +24014,11 @@
       <c r="JH35" s="11">
         <v>13600</v>
       </c>
+      <c r="JI35" s="11">
+        <v>14200</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>46</v>
       </c>
@@ -24737,8 +24821,11 @@
       <c r="JH36" s="11">
         <v>3400</v>
       </c>
+      <c r="JI36" s="11">
+        <v>3800</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>47</v>
       </c>
@@ -25541,8 +25628,11 @@
       <c r="JH37" s="11">
         <v>2200</v>
       </c>
+      <c r="JI37" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>49</v>
       </c>
@@ -26345,8 +26435,11 @@
       <c r="JH38" s="11">
         <v>10200</v>
       </c>
+      <c r="JI38" s="11">
+        <v>10400</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>51</v>
       </c>
@@ -27149,8 +27242,11 @@
       <c r="JH39" s="11">
         <v>4600</v>
       </c>
+      <c r="JI39" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>54</v>
       </c>
@@ -27951,10 +28047,13 @@
         <v>1500</v>
       </c>
       <c r="JH40" s="11">
+        <v>1600</v>
+      </c>
+      <c r="JI40" s="11">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>103</v>
       </c>
@@ -27967,7 +28066,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>16</v>
       </c>
@@ -27980,7 +28079,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>104</v>
       </c>
@@ -27993,7 +28092,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>105</v>
       </c>
@@ -28006,7 +28105,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>106</v>
       </c>
@@ -28019,7 +28118,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>107</v>
       </c>
@@ -28032,7 +28131,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>108</v>
       </c>

--- a/lowe/edd/data/CHIC$HWS.xlsx
+++ b/lowe/edd/data/CHIC$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI49"/>
+  <dimension ref="A1:JJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,12 +1369,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1402,12 +1402,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2225,11 +2225,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3035,8 +3038,11 @@
       <c r="JI9" s="11">
         <v>93800</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>94700</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3840,10 +3846,13 @@
         <v>86900</v>
       </c>
       <c r="JI10" s="11">
-        <v>88400</v>
+        <v>88500</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>89500</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4647,10 +4656,13 @@
         <v>6300</v>
       </c>
       <c r="JI11" s="11">
-        <v>5400</v>
+        <v>5300</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>5200</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5454,10 +5466,13 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6261,10 +6276,13 @@
         <v>78300</v>
       </c>
       <c r="JI13" s="11">
-        <v>78800</v>
+        <v>79300</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>80500</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7068,10 +7086,13 @@
         <v>3200</v>
       </c>
       <c r="JI14" s="11">
-        <v>3300</v>
+        <v>3500</v>
+      </c>
+      <c r="JJ14" s="11">
+        <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7875,10 +7896,13 @@
         <v>75100</v>
       </c>
       <c r="JI15" s="11">
-        <v>75500</v>
+        <v>75800</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>76700</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8682,10 +8706,13 @@
         <v>60900</v>
       </c>
       <c r="JI16" s="11">
-        <v>60700</v>
+        <v>61000</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>61100</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9491,8 +9518,11 @@
       <c r="JI17" s="11">
         <v>8900</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>8600</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10298,8 +10328,11 @@
       <c r="JI18" s="11">
         <v>4300</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11105,8 +11138,11 @@
       <c r="JI19" s="11">
         <v>4600</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -11910,10 +11946,13 @@
         <v>66000</v>
       </c>
       <c r="JI20" s="11">
-        <v>66600</v>
+        <v>66900</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>68100</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -12717,10 +12756,13 @@
         <v>51800</v>
       </c>
       <c r="JI21" s="11">
-        <v>51800</v>
+        <v>52100</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>52500</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -13526,8 +13568,11 @@
       <c r="JI22" s="11">
         <v>13700</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>13800</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -14333,8 +14378,11 @@
       <c r="JI23" s="11">
         <v>2200</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -15138,10 +15186,13 @@
         <v>9700</v>
       </c>
       <c r="JI24" s="11">
-        <v>9800</v>
+        <v>9700</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>9900</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>28</v>
       </c>
@@ -15945,10 +15996,13 @@
         <v>1700</v>
       </c>
       <c r="JI25" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JJ25" s="11">
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>29</v>
       </c>
@@ -16754,8 +16808,11 @@
       <c r="JI26" s="11">
         <v>800</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>30</v>
       </c>
@@ -17559,10 +17616,13 @@
         <v>2900</v>
       </c>
       <c r="JI27" s="11">
-        <v>2900</v>
+        <v>3000</v>
+      </c>
+      <c r="JJ27" s="11">
+        <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>31</v>
       </c>
@@ -18368,8 +18428,11 @@
       <c r="JI28" s="11">
         <v>1700</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>34</v>
       </c>
@@ -19173,10 +19236,13 @@
         <v>5400</v>
       </c>
       <c r="JI29" s="11">
-        <v>5300</v>
+        <v>5400</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>5200</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>35</v>
       </c>
@@ -19980,10 +20046,13 @@
         <v>18500</v>
       </c>
       <c r="JI30" s="11">
-        <v>18200</v>
+        <v>18300</v>
+      </c>
+      <c r="JJ30" s="11">
+        <v>18700</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>39</v>
       </c>
@@ -20789,8 +20858,11 @@
       <c r="JI31" s="11">
         <v>7900</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>42</v>
       </c>
@@ -21596,8 +21668,11 @@
       <c r="JI32" s="11">
         <v>3000</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>43</v>
       </c>
@@ -22403,8 +22478,11 @@
       <c r="JI33" s="11">
         <v>14800</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>15600</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -23210,8 +23288,11 @@
       <c r="JI34" s="11">
         <v>600</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>45</v>
       </c>
@@ -24017,8 +24098,11 @@
       <c r="JI35" s="11">
         <v>14200</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>46</v>
       </c>
@@ -24824,8 +24908,11 @@
       <c r="JI36" s="11">
         <v>3800</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>47</v>
       </c>
@@ -25631,8 +25718,11 @@
       <c r="JI37" s="11">
         <v>2700</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>49</v>
       </c>
@@ -26438,8 +26528,11 @@
       <c r="JI38" s="11">
         <v>10400</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>10900</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>51</v>
       </c>
@@ -27245,8 +27338,11 @@
       <c r="JI39" s="11">
         <v>4600</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>54</v>
       </c>
@@ -28050,10 +28146,13 @@
         <v>1600</v>
       </c>
       <c r="JI40" s="11">
+        <v>1600</v>
+      </c>
+      <c r="JJ40" s="11">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>103</v>
       </c>
@@ -28066,7 +28165,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>16</v>
       </c>
@@ -28079,7 +28178,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>104</v>
       </c>
@@ -28092,7 +28191,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>105</v>
       </c>
@@ -28105,7 +28204,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>106</v>
       </c>
@@ -28118,7 +28217,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>107</v>
       </c>
@@ -28131,7 +28230,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>108</v>
       </c>

--- a/lowe/edd/data/CHIC$HWS.xlsx
+++ b/lowe/edd/data/CHIC$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ49"/>
+  <dimension ref="A1:JL49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,12 +1369,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1402,12 +1402,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2228,11 +2228,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3039,10 +3045,16 @@
         <v>93800</v>
       </c>
       <c r="JJ9" s="11">
-        <v>94700</v>
+        <v>94400</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>94200</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>93300</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3849,10 +3861,16 @@
         <v>88500</v>
       </c>
       <c r="JJ10" s="11">
-        <v>89500</v>
+        <v>89300</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>89600</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>88800</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4659,10 +4677,16 @@
         <v>5300</v>
       </c>
       <c r="JJ11" s="11">
-        <v>5200</v>
+        <v>5100</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>4500</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5471,8 +5495,14 @@
       <c r="JJ12" s="12">
         <v>5.3999999999999999E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6279,10 +6309,16 @@
         <v>79300</v>
       </c>
       <c r="JJ13" s="11">
-        <v>80500</v>
+        <v>80300</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>80100</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>79100</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7091,8 +7127,14 @@
       <c r="JJ14" s="11">
         <v>3800</v>
       </c>
+      <c r="JK14" s="11">
+        <v>3400</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7899,10 +7941,16 @@
         <v>75800</v>
       </c>
       <c r="JJ15" s="11">
+        <v>76500</v>
+      </c>
+      <c r="JK15" s="11">
         <v>76700</v>
       </c>
+      <c r="JL15" s="11">
+        <v>76300</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8709,10 +8757,16 @@
         <v>61000</v>
       </c>
       <c r="JJ16" s="11">
+        <v>61200</v>
+      </c>
+      <c r="JK16" s="11">
         <v>61100</v>
       </c>
+      <c r="JL16" s="11">
+        <v>61100</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9521,8 +9575,14 @@
       <c r="JJ17" s="11">
         <v>8600</v>
       </c>
+      <c r="JK17" s="11">
+        <v>8300</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>8300</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10331,8 +10391,14 @@
       <c r="JJ18" s="11">
         <v>4400</v>
       </c>
+      <c r="JK18" s="11">
+        <v>4400</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11141,8 +11207,14 @@
       <c r="JJ19" s="11">
         <v>4200</v>
       </c>
+      <c r="JK19" s="11">
+        <v>3900</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -11949,10 +12021,16 @@
         <v>66900</v>
       </c>
       <c r="JJ20" s="11">
-        <v>68100</v>
+        <v>67900</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>68400</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>68000</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -12759,10 +12837,16 @@
         <v>52100</v>
       </c>
       <c r="JJ21" s="11">
-        <v>52500</v>
+        <v>52600</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>52800</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>52800</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -13571,8 +13655,14 @@
       <c r="JJ22" s="11">
         <v>13800</v>
       </c>
+      <c r="JK22" s="11">
+        <v>14200</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>14100</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -14381,8 +14471,14 @@
       <c r="JJ23" s="11">
         <v>2200</v>
       </c>
+      <c r="JK23" s="11">
+        <v>2200</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -15191,8 +15287,14 @@
       <c r="JJ24" s="11">
         <v>9900</v>
       </c>
+      <c r="JK24" s="11">
+        <v>10100</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>10100</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>28</v>
       </c>
@@ -16001,8 +16103,14 @@
       <c r="JJ25" s="11">
         <v>1700</v>
       </c>
+      <c r="JK25" s="11">
+        <v>1900</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>29</v>
       </c>
@@ -16811,8 +16919,14 @@
       <c r="JJ26" s="11">
         <v>800</v>
       </c>
+      <c r="JK26" s="11">
+        <v>800</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>30</v>
       </c>
@@ -17621,8 +17735,14 @@
       <c r="JJ27" s="11">
         <v>3000</v>
       </c>
+      <c r="JK27" s="11">
+        <v>3000</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>31</v>
       </c>
@@ -18431,8 +18551,14 @@
       <c r="JJ28" s="11">
         <v>1800</v>
       </c>
+      <c r="JK28" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>34</v>
       </c>
@@ -19239,10 +19365,16 @@
         <v>5400</v>
       </c>
       <c r="JJ29" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JK29" s="11">
         <v>5200</v>
       </c>
+      <c r="JL29" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>35</v>
       </c>
@@ -20051,8 +20183,14 @@
       <c r="JJ30" s="11">
         <v>18700</v>
       </c>
+      <c r="JK30" s="11">
+        <v>18700</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>18500</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>39</v>
       </c>
@@ -20861,8 +20999,14 @@
       <c r="JJ31" s="11">
         <v>7900</v>
       </c>
+      <c r="JK31" s="11">
+        <v>7800</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>42</v>
       </c>
@@ -21671,8 +21815,14 @@
       <c r="JJ32" s="11">
         <v>3100</v>
       </c>
+      <c r="JK32" s="11">
+        <v>3100</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>43</v>
       </c>
@@ -22479,10 +22629,16 @@
         <v>14800</v>
       </c>
       <c r="JJ33" s="11">
+        <v>15300</v>
+      </c>
+      <c r="JK33" s="11">
         <v>15600</v>
       </c>
+      <c r="JL33" s="11">
+        <v>15200</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>44</v>
       </c>
@@ -23291,8 +23447,14 @@
       <c r="JJ34" s="11">
         <v>600</v>
       </c>
+      <c r="JK34" s="11">
+        <v>600</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>45</v>
       </c>
@@ -24099,10 +24261,16 @@
         <v>14200</v>
       </c>
       <c r="JJ35" s="11">
+        <v>14700</v>
+      </c>
+      <c r="JK35" s="11">
         <v>15000</v>
       </c>
+      <c r="JL35" s="11">
+        <v>14600</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>46</v>
       </c>
@@ -24911,8 +25079,14 @@
       <c r="JJ36" s="11">
         <v>4100</v>
       </c>
+      <c r="JK36" s="11">
+        <v>4200</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>47</v>
       </c>
@@ -25721,8 +25895,14 @@
       <c r="JJ37" s="11">
         <v>3000</v>
       </c>
+      <c r="JK37" s="11">
+        <v>3100</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>49</v>
       </c>
@@ -26529,10 +26709,16 @@
         <v>10400</v>
       </c>
       <c r="JJ38" s="11">
-        <v>10900</v>
+        <v>10600</v>
+      </c>
+      <c r="JK38" s="11">
+        <v>10800</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>10400</v>
       </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>51</v>
       </c>
@@ -27341,8 +27527,14 @@
       <c r="JJ39" s="11">
         <v>4500</v>
       </c>
+      <c r="JK39" s="11">
+        <v>4500</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>54</v>
       </c>
@@ -28151,8 +28343,14 @@
       <c r="JJ40" s="11">
         <v>1500</v>
       </c>
+      <c r="JK40" s="11">
+        <v>1500</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>103</v>
       </c>
@@ -28165,7 +28363,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>16</v>
       </c>
@@ -28178,7 +28376,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>104</v>
       </c>
@@ -28191,7 +28389,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>105</v>
       </c>
@@ -28204,7 +28402,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>106</v>
       </c>
@@ -28217,7 +28415,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>107</v>
       </c>
@@ -28230,7 +28428,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>108</v>
       </c>
